--- a/Centroid.xlsx
+++ b/Centroid.xlsx
@@ -8,18 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\deden-RMarkdown &amp; Github\PDP-SoVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F65AD-504F-418B-87A3-9C8738E062BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3EA760-2FBC-480A-BB4B-F0448C998F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5BEB3FE4-252B-420A-8209-382D475AF142}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5BEB3FE4-252B-420A-8209-382D475AF142}"/>
   </bookViews>
   <sheets>
     <sheet name="CVI" sheetId="6" r:id="rId1"/>
     <sheet name="m=1.5" sheetId="1" r:id="rId2"/>
-    <sheet name="m1.6" sheetId="3" r:id="rId3"/>
-    <sheet name="m1.5" sheetId="4" r:id="rId4"/>
-    <sheet name="m1.1" sheetId="5" r:id="rId5"/>
+    <sheet name="m1.5a0.8" sheetId="9" r:id="rId3"/>
+    <sheet name="m1.6" sheetId="3" r:id="rId4"/>
+    <sheet name="m1.5" sheetId="4" r:id="rId5"/>
+    <sheet name="3m1.5" sheetId="8" r:id="rId6"/>
+    <sheet name="m1.1" sheetId="5" r:id="rId7"/>
+    <sheet name="m1.7" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId9"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="45">
   <si>
     <t>CHILDREN</t>
   </si>
@@ -165,6 +171,15 @@
   <si>
     <t>CE</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of CE</t>
+  </si>
 </sst>
 </file>
 
@@ -185,7 +200,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,6 +210,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -221,6 +242,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1089,6 +1119,867 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Centroid.xlsx]CVI!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CVI!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>CVI!$A$14:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CVI!$B$14:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.61991830000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92108029999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.192407</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2651460000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4811669999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6536280000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7917419999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F0BB-4480-A2FF-F77DDD52588D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="366216335"/>
+        <c:axId val="366213839"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="366216335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366213839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="366213839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366216335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1209,6 +2100,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2757,20 +3688,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>273049</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2833,16 +4267,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>53975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2867,7 +4301,247 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0793DB2-1227-490D-85BD-6BDB21F42217}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Deden Istiawan" refreshedDate="45111.740329166663" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="7" xr:uid="{6D3FAA60-1DA0-4228-A89E-A515E49574B5}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H8" sheet="CVI"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="C" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="8" count="7">
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.20105300000000001" maxValue="0.57022830000000002"/>
+    </cacheField>
+    <cacheField name="CE" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.61991830000000003" maxValue="1.7917419999999999"/>
+    </cacheField>
+    <cacheField name="SC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.55068249999999996" maxValue="6.4625810000000001"/>
+    </cacheField>
+    <cacheField name="SI" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.0222099999999998" maxValue="3.874155E+17"/>
+    </cacheField>
+    <cacheField name="XB" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.9788829999999997" maxValue="12.061870000000001"/>
+    </cacheField>
+    <cacheField name="IFV" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.54181699999999999" maxValue="42.795830000000002"/>
+    </cacheField>
+    <cacheField name="Kwon" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1533.394" maxValue="4.7094E+20"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+  <r>
+    <x v="0"/>
+    <n v="0.57022830000000002"/>
+    <n v="0.61991830000000003"/>
+    <n v="6.4625810000000001"/>
+    <n v="2.1732140000000002"/>
+    <n v="12.061870000000001"/>
+    <n v="0.54181699999999999"/>
+    <n v="1533.394"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.45244450000000003"/>
+    <n v="0.92108029999999996"/>
+    <n v="2.487171"/>
+    <n v="2.0222099999999998"/>
+    <n v="9.8973230000000001"/>
+    <n v="3.4890819999999998"/>
+    <n v="1685.7449999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.3437325"/>
+    <n v="1.192407"/>
+    <n v="1.6516470000000001"/>
+    <n v="58542299"/>
+    <n v="8.1745540000000005"/>
+    <n v="7.1189780000000003"/>
+    <n v="55744515568"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.3223994"/>
+    <n v="1.2651460000000001"/>
+    <n v="0.86579830000000002"/>
+    <n v="13874781"/>
+    <n v="8.2953790000000005"/>
+    <n v="27.83315"/>
+    <n v="13995973021"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.26271260000000002"/>
+    <n v="1.4811669999999999"/>
+    <n v="0.71413700000000002"/>
+    <n v="1285035212"/>
+    <n v="5.8889880000000003"/>
+    <n v="33.325279999999999"/>
+    <n v="1437381000000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0.22525809999999999"/>
+    <n v="1.6536280000000001"/>
+    <n v="0.62764370000000003"/>
+    <n v="3.874155E+17"/>
+    <n v="5.304621"/>
+    <n v="38.14443"/>
+    <n v="4.7094E+20"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.20105300000000001"/>
+    <n v="1.7917419999999999"/>
+    <n v="0.55068249999999996"/>
+    <n v="183790089635"/>
+    <n v="4.9788829999999997"/>
+    <n v="42.795830000000002"/>
+    <n v="239029200000000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C552506B-6F56-4D25-845F-4CAF85EDC6EB}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A13:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of CE" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3167,13 +4841,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67150078-2FFE-410A-89C2-146B6A125134}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -3240,7 +4918,7 @@
       <c r="D3" s="1">
         <v>2.487171</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="9">
         <v>2.0222099999999998</v>
       </c>
       <c r="F3" s="1">
@@ -3269,10 +4947,10 @@
       <c r="E4" s="1">
         <v>58542299</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="9">
         <v>8.1745540000000005</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="9">
         <v>7.1189780000000003</v>
       </c>
       <c r="H4" s="1">
@@ -3383,18 +5061,90 @@
         <v>239029200000000</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.61991830000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.92108029999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1.192407</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>5</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1.2651460000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1.4811669999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>7</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1.6536280000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>8</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1.7917419999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="8">
+        <v>8.9250886000000005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169B922D-2506-464B-BE8F-84F0A7E6F139}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3797,6 +5547,390 @@
         <v>7.4271770000000004</v>
       </c>
     </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>9.1207790000000006</v>
+      </c>
+      <c r="C10" s="2">
+        <v>49.54374</v>
+      </c>
+      <c r="D10">
+        <v>4.1438620000000004</v>
+      </c>
+      <c r="E10" s="2">
+        <v>15.306620000000001</v>
+      </c>
+      <c r="F10">
+        <v>3.900992</v>
+      </c>
+      <c r="G10">
+        <v>2.6286109999999998</v>
+      </c>
+      <c r="H10">
+        <v>25.34009</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.582344</v>
+      </c>
+      <c r="J10">
+        <v>8.9023350000000008</v>
+      </c>
+      <c r="K10">
+        <v>5.7894829999999997</v>
+      </c>
+      <c r="L10">
+        <v>97.598240000000004</v>
+      </c>
+      <c r="M10">
+        <v>91.893289999999993</v>
+      </c>
+      <c r="N10" s="2">
+        <v>15.289232</v>
+      </c>
+      <c r="O10">
+        <v>9.1219479999999997</v>
+      </c>
+      <c r="P10" s="2">
+        <v>39.61795</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>7.3989149999999997</v>
+      </c>
+      <c r="R10" s="2">
+        <v>6.9822329999999999</v>
+      </c>
+      <c r="S10" s="2">
+        <v>7.4271770000000004</v>
+      </c>
+      <c r="T10">
+        <v>32.39067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>9.3476230000000005</v>
+      </c>
+      <c r="C11">
+        <v>49.528790000000001</v>
+      </c>
+      <c r="D11">
+        <v>4.8678900000000001</v>
+      </c>
+      <c r="E11">
+        <v>14.239979999999999</v>
+      </c>
+      <c r="F11">
+        <v>3.9140259999999998</v>
+      </c>
+      <c r="G11">
+        <v>4.5292899999999996</v>
+      </c>
+      <c r="H11" s="5">
+        <v>34.04898</v>
+      </c>
+      <c r="I11">
+        <v>1.3184210000000001</v>
+      </c>
+      <c r="J11">
+        <v>12.551449</v>
+      </c>
+      <c r="K11">
+        <v>8.0120850000000008</v>
+      </c>
+      <c r="L11" s="2">
+        <v>98.683570000000003</v>
+      </c>
+      <c r="M11">
+        <v>91.895399999999995</v>
+      </c>
+      <c r="N11">
+        <v>5.9730939999999997</v>
+      </c>
+      <c r="O11">
+        <v>16.233550000000001</v>
+      </c>
+      <c r="P11">
+        <v>15.06452</v>
+      </c>
+      <c r="Q11">
+        <v>6.4144870000000003</v>
+      </c>
+      <c r="R11">
+        <v>6.5256129999999999</v>
+      </c>
+      <c r="S11">
+        <v>6.3972569999999997</v>
+      </c>
+      <c r="T11">
+        <v>20.639289999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>9.3476169999999996</v>
+      </c>
+      <c r="C12">
+        <v>49.528779999999998</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.8678929999999996</v>
+      </c>
+      <c r="E12">
+        <v>14.239990000000001</v>
+      </c>
+      <c r="F12">
+        <v>3.9140220000000001</v>
+      </c>
+      <c r="G12">
+        <v>4.5291839999999999</v>
+      </c>
+      <c r="H12">
+        <v>34.048769999999998</v>
+      </c>
+      <c r="I12">
+        <v>1.318425</v>
+      </c>
+      <c r="J12">
+        <v>12.551308000000001</v>
+      </c>
+      <c r="K12">
+        <v>8.0119980000000002</v>
+      </c>
+      <c r="L12">
+        <v>98.68356</v>
+      </c>
+      <c r="M12" s="2">
+        <v>91.895499999999998</v>
+      </c>
+      <c r="N12">
+        <v>5.9732269999999996</v>
+      </c>
+      <c r="O12">
+        <v>16.233160000000002</v>
+      </c>
+      <c r="P12">
+        <v>15.06456</v>
+      </c>
+      <c r="Q12">
+        <v>6.4144509999999997</v>
+      </c>
+      <c r="R12">
+        <v>6.5255749999999999</v>
+      </c>
+      <c r="S12">
+        <v>6.397221</v>
+      </c>
+      <c r="T12">
+        <v>20.639679999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10.100725000000001</v>
+      </c>
+      <c r="C13">
+        <v>49.319420000000001</v>
+      </c>
+      <c r="D13">
+        <v>3.6952289999999999</v>
+      </c>
+      <c r="E13">
+        <v>13.26301</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.1757600000000004</v>
+      </c>
+      <c r="G13" s="2">
+        <v>15.112373</v>
+      </c>
+      <c r="H13" s="2">
+        <v>34.362290000000002</v>
+      </c>
+      <c r="I13">
+        <v>1.4997499999999999</v>
+      </c>
+      <c r="J13" s="2">
+        <v>18.341225999999999</v>
+      </c>
+      <c r="K13" s="2">
+        <v>11.671733</v>
+      </c>
+      <c r="L13">
+        <v>98.655749999999998</v>
+      </c>
+      <c r="M13">
+        <v>89.011120000000005</v>
+      </c>
+      <c r="N13">
+        <v>4.4370339999999997</v>
+      </c>
+      <c r="O13" s="2">
+        <v>32.731335000000001</v>
+      </c>
+      <c r="P13">
+        <v>11.19875</v>
+      </c>
+      <c r="Q13">
+        <v>6.2596990000000003</v>
+      </c>
+      <c r="R13">
+        <v>6.3714130000000004</v>
+      </c>
+      <c r="S13">
+        <v>6.2889559999999998</v>
+      </c>
+      <c r="T13" s="2">
+        <v>13.526999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <f>MAX(B10:B13)</f>
+        <v>10.100725000000001</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:S14" si="1">MAX(C10:C13)</f>
+        <v>49.54374</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>4.8678929999999996</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>15.306620000000001</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>4.1757600000000004</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>15.112373</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>34.362290000000002</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>1.582344</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>18.341225999999999</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>11.671733</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>98.683570000000003</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>91.895499999999998</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>15.289232</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>32.731335000000001</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>39.61795</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>7.3989149999999997</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="1"/>
+        <v>6.9822329999999999</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="1"/>
+        <v>7.4271770000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -3804,6 +5938,421 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71389ED7-4D80-4584-AE90-4C3666334B72}">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView zoomScale="74" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9.0909809999999993</v>
+      </c>
+      <c r="C2" s="2">
+        <v>49.581249999999997</v>
+      </c>
+      <c r="D2">
+        <v>4.1225519999999998</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15.639891</v>
+      </c>
+      <c r="F2">
+        <v>3.8991669999999998</v>
+      </c>
+      <c r="G2">
+        <v>1.424955</v>
+      </c>
+      <c r="H2">
+        <v>24.013269999999999</v>
+      </c>
+      <c r="I2">
+        <v>1.600223</v>
+      </c>
+      <c r="J2">
+        <v>8.1398899999999994</v>
+      </c>
+      <c r="K2">
+        <v>5.0180420000000003</v>
+      </c>
+      <c r="L2">
+        <v>97.333579999999998</v>
+      </c>
+      <c r="M2">
+        <v>91.658410000000003</v>
+      </c>
+      <c r="N2" s="2">
+        <v>16.988116000000002</v>
+      </c>
+      <c r="O2">
+        <v>7.508572</v>
+      </c>
+      <c r="P2" s="2">
+        <v>44.568266999999999</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>7.780297</v>
+      </c>
+      <c r="R2" s="2">
+        <v>7.2099440000000001</v>
+      </c>
+      <c r="S2" s="2">
+        <v>7.7581170000000004</v>
+      </c>
+      <c r="T2">
+        <v>34.248659000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9.8551009999999994</v>
+      </c>
+      <c r="C3">
+        <v>49.53622</v>
+      </c>
+      <c r="D3">
+        <v>4.4328440000000002</v>
+      </c>
+      <c r="E3">
+        <v>13.977332000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4.060003</v>
+      </c>
+      <c r="G3">
+        <v>5.7922599999999997</v>
+      </c>
+      <c r="H3" s="2">
+        <v>35.32085</v>
+      </c>
+      <c r="I3">
+        <v>1.3912230000000001</v>
+      </c>
+      <c r="J3">
+        <v>14.44056</v>
+      </c>
+      <c r="K3">
+        <v>8.231738</v>
+      </c>
+      <c r="L3">
+        <v>98.676509999999993</v>
+      </c>
+      <c r="M3">
+        <v>89.725179999999995</v>
+      </c>
+      <c r="N3">
+        <v>4.6124850000000004</v>
+      </c>
+      <c r="O3">
+        <v>24.835782999999999</v>
+      </c>
+      <c r="P3">
+        <v>13.416658</v>
+      </c>
+      <c r="Q3">
+        <v>6.9370190000000003</v>
+      </c>
+      <c r="R3">
+        <v>7.12296</v>
+      </c>
+      <c r="S3">
+        <v>6.9214979999999997</v>
+      </c>
+      <c r="T3">
+        <v>16.158089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>8.6153220000000008</v>
+      </c>
+      <c r="C4">
+        <v>48.133769999999998</v>
+      </c>
+      <c r="D4">
+        <v>1.1270469999999999</v>
+      </c>
+      <c r="E4">
+        <v>8.9670179999999995</v>
+      </c>
+      <c r="F4">
+        <v>3.9533800000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>67.390866000000003</v>
+      </c>
+      <c r="H4">
+        <v>33.05433</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.756445</v>
+      </c>
+      <c r="J4" s="2">
+        <v>33.9846</v>
+      </c>
+      <c r="K4" s="2">
+        <v>38.248672999999997</v>
+      </c>
+      <c r="L4" s="2">
+        <v>99.504159999999999</v>
+      </c>
+      <c r="M4" s="2">
+        <v>93.573520000000002</v>
+      </c>
+      <c r="N4">
+        <v>2.2094610000000001</v>
+      </c>
+      <c r="O4" s="2">
+        <v>51.046442999999996</v>
+      </c>
+      <c r="P4">
+        <v>1.0741369999999999</v>
+      </c>
+      <c r="Q4">
+        <v>2.2783150000000001</v>
+      </c>
+      <c r="R4">
+        <v>2.2448049999999999</v>
+      </c>
+      <c r="S4">
+        <v>2.884023</v>
+      </c>
+      <c r="T4" s="2">
+        <v>4.0496369999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>9.2949300000000008</v>
+      </c>
+      <c r="C5">
+        <v>49.535719999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.0764829999999996</v>
+      </c>
+      <c r="E5">
+        <v>14.355611</v>
+      </c>
+      <c r="F5">
+        <v>3.8893650000000002</v>
+      </c>
+      <c r="G5">
+        <v>2.9290759999999998</v>
+      </c>
+      <c r="H5">
+        <v>33.809649999999998</v>
+      </c>
+      <c r="I5">
+        <v>1.2921560000000001</v>
+      </c>
+      <c r="J5">
+        <v>11.750249999999999</v>
+      </c>
+      <c r="K5">
+        <v>7.1616169999999997</v>
+      </c>
+      <c r="L5">
+        <v>98.730140000000006</v>
+      </c>
+      <c r="M5">
+        <v>92.650620000000004</v>
+      </c>
+      <c r="N5">
+        <v>6.0244249999999999</v>
+      </c>
+      <c r="O5">
+        <v>13.750188</v>
+      </c>
+      <c r="P5">
+        <v>14.174986000000001</v>
+      </c>
+      <c r="Q5">
+        <v>6.0931610000000003</v>
+      </c>
+      <c r="R5">
+        <v>6.2329590000000001</v>
+      </c>
+      <c r="S5">
+        <v>6.0694910000000002</v>
+      </c>
+      <c r="T5">
+        <v>22.012566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <f>MAX(B2:B5)</f>
+        <v>9.8551009999999994</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:S6" si="0">MAX(C2:C5)</f>
+        <v>49.581249999999997</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5.0764829999999996</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>15.639891</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4.060003</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>67.390866000000003</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>35.32085</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.756445</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>33.9846</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>38.248672999999997</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>99.504159999999999</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>93.573520000000002</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>16.988116000000002</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>51.046442999999996</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>44.568266999999999</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>7.780297</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>7.2099440000000001</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>7.7581170000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEF7DFA-3794-4405-B8E6-531B11B50248}">
   <dimension ref="A1:T6"/>
   <sheetViews>
@@ -4223,12 +6772,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CCB439-3541-4FFF-9EA4-0489DD5B1F94}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4557,12 +7106,668 @@
         <v>30.586010000000002</v>
       </c>
     </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>9.1762990000000002</v>
+      </c>
+      <c r="C9">
+        <v>49.515520000000002</v>
+      </c>
+      <c r="D9">
+        <v>4.2153479999999997</v>
+      </c>
+      <c r="E9" s="5">
+        <v>15.017300000000001</v>
+      </c>
+      <c r="F9">
+        <v>3.9016259999999998</v>
+      </c>
+      <c r="G9">
+        <v>3.3228179999999998</v>
+      </c>
+      <c r="H9">
+        <v>26.733799999999999</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.554387</v>
+      </c>
+      <c r="J9">
+        <v>9.5781840000000003</v>
+      </c>
+      <c r="K9">
+        <v>6.3011350000000004</v>
+      </c>
+      <c r="L9">
+        <v>97.799120000000002</v>
+      </c>
+      <c r="M9">
+        <v>91.708879999999994</v>
+      </c>
+      <c r="N9" s="5">
+        <v>13.693571</v>
+      </c>
+      <c r="O9">
+        <v>10.38021</v>
+      </c>
+      <c r="P9" s="5">
+        <v>34.336239999999997</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>7.246289</v>
+      </c>
+      <c r="R9" s="5">
+        <v>6.9314359999999997</v>
+      </c>
+      <c r="S9" s="5">
+        <v>7.2941599999999998</v>
+      </c>
+      <c r="T9">
+        <v>30.58595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>9.2761580000000006</v>
+      </c>
+      <c r="C10" s="5">
+        <v>49.533520000000003</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4.9862799999999998</v>
+      </c>
+      <c r="E10">
+        <v>14.25789</v>
+      </c>
+      <c r="F10">
+        <v>3.8949039999999999</v>
+      </c>
+      <c r="G10">
+        <v>4.3370259999999998</v>
+      </c>
+      <c r="H10">
+        <v>34.308399999999999</v>
+      </c>
+      <c r="I10">
+        <v>1.2831269999999999</v>
+      </c>
+      <c r="J10">
+        <v>12.447213</v>
+      </c>
+      <c r="K10">
+        <v>7.9599089999999997</v>
+      </c>
+      <c r="L10" s="5">
+        <v>98.732609999999994</v>
+      </c>
+      <c r="M10" s="5">
+        <v>92.359120000000004</v>
+      </c>
+      <c r="N10">
+        <v>5.7561939999999998</v>
+      </c>
+      <c r="O10">
+        <v>15.569610000000001</v>
+      </c>
+      <c r="P10">
+        <v>14.504099999999999</v>
+      </c>
+      <c r="Q10">
+        <v>6.2291869999999996</v>
+      </c>
+      <c r="R10">
+        <v>6.3418960000000002</v>
+      </c>
+      <c r="S10">
+        <v>6.1920469999999996</v>
+      </c>
+      <c r="T10">
+        <v>20.670359999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9.9318550000000005</v>
+      </c>
+      <c r="C11">
+        <v>49.411470000000001</v>
+      </c>
+      <c r="D11">
+        <v>4.037731</v>
+      </c>
+      <c r="E11">
+        <v>13.616429999999999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4.1037520000000001</v>
+      </c>
+      <c r="G11" s="5">
+        <v>11.001517</v>
+      </c>
+      <c r="H11" s="5">
+        <v>34.526389999999999</v>
+      </c>
+      <c r="I11">
+        <v>1.4620660000000001</v>
+      </c>
+      <c r="J11" s="5">
+        <v>16.413347999999999</v>
+      </c>
+      <c r="K11" s="5">
+        <v>10.339763</v>
+      </c>
+      <c r="L11">
+        <v>98.649119999999996</v>
+      </c>
+      <c r="M11">
+        <v>89.45335</v>
+      </c>
+      <c r="N11">
+        <v>4.7748809999999997</v>
+      </c>
+      <c r="O11" s="5">
+        <v>27.917809999999999</v>
+      </c>
+      <c r="P11">
+        <v>12.738709999999999</v>
+      </c>
+      <c r="Q11">
+        <v>6.5809670000000002</v>
+      </c>
+      <c r="R11">
+        <v>6.7178149999999999</v>
+      </c>
+      <c r="S11">
+        <v>6.6052809999999997</v>
+      </c>
+      <c r="T11" s="5">
+        <v>15.218220000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <f>MAX(B9:B11)</f>
+        <v>9.9318550000000005</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:S12" si="1">MAX(C9:C11)</f>
+        <v>49.533520000000003</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>4.9862799999999998</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>15.017300000000001</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>4.1037520000000001</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>11.001517</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>34.526389999999999</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1.554387</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>16.413347999999999</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>10.339763</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>98.732609999999994</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>92.359120000000004</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>13.693571</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>27.917809999999999</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>34.336239999999997</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>7.246289</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="1"/>
+        <v>6.9314359999999997</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="1"/>
+        <v>7.2941599999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1365C4-DD2E-4D22-827E-5451F1569BBB}">
+  <dimension ref="A1:T5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:T5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9.1762990000000002</v>
+      </c>
+      <c r="C2">
+        <v>49.515520000000002</v>
+      </c>
+      <c r="D2">
+        <v>4.2153479999999997</v>
+      </c>
+      <c r="E2" s="5">
+        <v>15.017300000000001</v>
+      </c>
+      <c r="F2">
+        <v>3.9016259999999998</v>
+      </c>
+      <c r="G2">
+        <v>3.3228179999999998</v>
+      </c>
+      <c r="H2">
+        <v>26.733799999999999</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.554387</v>
+      </c>
+      <c r="J2">
+        <v>9.5781840000000003</v>
+      </c>
+      <c r="K2">
+        <v>6.3011350000000004</v>
+      </c>
+      <c r="L2">
+        <v>97.799120000000002</v>
+      </c>
+      <c r="M2">
+        <v>91.708879999999994</v>
+      </c>
+      <c r="N2" s="5">
+        <v>13.693571</v>
+      </c>
+      <c r="O2">
+        <v>10.38021</v>
+      </c>
+      <c r="P2" s="5">
+        <v>34.336239999999997</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>7.246289</v>
+      </c>
+      <c r="R2" s="5">
+        <v>6.9314359999999997</v>
+      </c>
+      <c r="S2" s="5">
+        <v>7.2941599999999998</v>
+      </c>
+      <c r="T2">
+        <v>30.58595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>9.2761580000000006</v>
+      </c>
+      <c r="C3" s="5">
+        <v>49.533520000000003</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.9862799999999998</v>
+      </c>
+      <c r="E3">
+        <v>14.25789</v>
+      </c>
+      <c r="F3">
+        <v>3.8949039999999999</v>
+      </c>
+      <c r="G3">
+        <v>4.3370259999999998</v>
+      </c>
+      <c r="H3">
+        <v>34.308399999999999</v>
+      </c>
+      <c r="I3">
+        <v>1.2831269999999999</v>
+      </c>
+      <c r="J3">
+        <v>12.447213</v>
+      </c>
+      <c r="K3">
+        <v>7.9599089999999997</v>
+      </c>
+      <c r="L3" s="5">
+        <v>98.732609999999994</v>
+      </c>
+      <c r="M3" s="5">
+        <v>92.359120000000004</v>
+      </c>
+      <c r="N3">
+        <v>5.7561939999999998</v>
+      </c>
+      <c r="O3">
+        <v>15.569610000000001</v>
+      </c>
+      <c r="P3">
+        <v>14.504099999999999</v>
+      </c>
+      <c r="Q3">
+        <v>6.2291869999999996</v>
+      </c>
+      <c r="R3">
+        <v>6.3418960000000002</v>
+      </c>
+      <c r="S3">
+        <v>6.1920469999999996</v>
+      </c>
+      <c r="T3">
+        <v>20.670359999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9.9318550000000005</v>
+      </c>
+      <c r="C4">
+        <v>49.411470000000001</v>
+      </c>
+      <c r="D4">
+        <v>4.037731</v>
+      </c>
+      <c r="E4">
+        <v>13.616429999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4.1037520000000001</v>
+      </c>
+      <c r="G4" s="5">
+        <v>11.001517</v>
+      </c>
+      <c r="H4" s="5">
+        <v>34.526389999999999</v>
+      </c>
+      <c r="I4">
+        <v>1.4620660000000001</v>
+      </c>
+      <c r="J4" s="5">
+        <v>16.413347999999999</v>
+      </c>
+      <c r="K4" s="5">
+        <v>10.339763</v>
+      </c>
+      <c r="L4">
+        <v>98.649119999999996</v>
+      </c>
+      <c r="M4">
+        <v>89.45335</v>
+      </c>
+      <c r="N4">
+        <v>4.7748809999999997</v>
+      </c>
+      <c r="O4" s="5">
+        <v>27.917809999999999</v>
+      </c>
+      <c r="P4">
+        <v>12.738709999999999</v>
+      </c>
+      <c r="Q4">
+        <v>6.5809670000000002</v>
+      </c>
+      <c r="R4">
+        <v>6.7178149999999999</v>
+      </c>
+      <c r="S4">
+        <v>6.6052809999999997</v>
+      </c>
+      <c r="T4" s="5">
+        <v>15.218220000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <f>MAX(B2:B4)</f>
+        <v>9.9318550000000005</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:S5" si="0">MAX(C2:C4)</f>
+        <v>49.533520000000003</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4.9862799999999998</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>15.017300000000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>4.1037520000000001</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>11.001517</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>34.526389999999999</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1.554387</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>16.413347999999999</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>10.339763</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>98.732609999999994</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>92.359120000000004</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>13.693571</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>27.917809999999999</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>34.336239999999997</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>7.246289</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="0"/>
+        <v>6.9314359999999997</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>7.2941599999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232B1AEB-CFC4-43CB-9C6E-F3FFF0282706}">
   <dimension ref="A1:T6"/>
   <sheetViews>
@@ -4978,4 +8183,409 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676C5D66-4829-4EC2-B1CD-87E2FAD89D70}">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="20" width="8.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9.2206449999999993</v>
+      </c>
+      <c r="C2" s="2">
+        <v>49.5075</v>
+      </c>
+      <c r="D2">
+        <v>4.2772779999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14.874000000000001</v>
+      </c>
+      <c r="F2">
+        <v>3.9111820000000002</v>
+      </c>
+      <c r="G2">
+        <v>3.995368</v>
+      </c>
+      <c r="H2">
+        <v>27.796669999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.5265420000000001</v>
+      </c>
+      <c r="J2">
+        <v>10.227410000000001</v>
+      </c>
+      <c r="K2">
+        <v>6.7308519999999996</v>
+      </c>
+      <c r="L2">
+        <v>97.977369999999993</v>
+      </c>
+      <c r="M2" s="2">
+        <v>91.775300000000001</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12.274160999999999</v>
+      </c>
+      <c r="O2">
+        <v>11.73887</v>
+      </c>
+      <c r="P2" s="2">
+        <v>30.95553</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>6.9102829999999997</v>
+      </c>
+      <c r="R2" s="2">
+        <v>6.7042869999999999</v>
+      </c>
+      <c r="S2" s="2">
+        <v>6.9591050000000001</v>
+      </c>
+      <c r="T2">
+        <v>29.02413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>9.5006540000000008</v>
+      </c>
+      <c r="C3">
+        <v>49.489789999999999</v>
+      </c>
+      <c r="D3">
+        <v>4.5636910000000004</v>
+      </c>
+      <c r="E3">
+        <v>14.10699</v>
+      </c>
+      <c r="F3">
+        <v>3.9692080000000001</v>
+      </c>
+      <c r="G3">
+        <v>6.5904930000000004</v>
+      </c>
+      <c r="H3">
+        <v>33.65878</v>
+      </c>
+      <c r="I3">
+        <v>1.375343</v>
+      </c>
+      <c r="J3">
+        <v>13.589270000000001</v>
+      </c>
+      <c r="K3">
+        <v>8.6711600000000004</v>
+      </c>
+      <c r="L3">
+        <v>98.593909999999994</v>
+      </c>
+      <c r="M3">
+        <v>91.132679999999993</v>
+      </c>
+      <c r="N3">
+        <v>6.2465809999999999</v>
+      </c>
+      <c r="O3">
+        <v>19.36992</v>
+      </c>
+      <c r="P3">
+        <v>15.881539999999999</v>
+      </c>
+      <c r="Q3">
+        <v>6.5530679999999997</v>
+      </c>
+      <c r="R3">
+        <v>6.6166450000000001</v>
+      </c>
+      <c r="S3">
+        <v>6.5420220000000002</v>
+      </c>
+      <c r="T3">
+        <v>19.64508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>9.5006599999999999</v>
+      </c>
+      <c r="C4">
+        <v>49.489789999999999</v>
+      </c>
+      <c r="D4">
+        <v>4.5636830000000002</v>
+      </c>
+      <c r="E4">
+        <v>14.10698</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3.9692099999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6.5905500000000004</v>
+      </c>
+      <c r="H4" s="2">
+        <v>33.658799999999999</v>
+      </c>
+      <c r="I4">
+        <v>1.375345</v>
+      </c>
+      <c r="J4" s="2">
+        <v>13.589309999999999</v>
+      </c>
+      <c r="K4" s="2">
+        <v>8.6711840000000002</v>
+      </c>
+      <c r="L4" s="2">
+        <v>98.593909999999994</v>
+      </c>
+      <c r="M4">
+        <v>91.132649999999998</v>
+      </c>
+      <c r="N4">
+        <v>6.2465580000000003</v>
+      </c>
+      <c r="O4" s="2">
+        <v>19.370049999999999</v>
+      </c>
+      <c r="P4">
+        <v>15.881489999999999</v>
+      </c>
+      <c r="Q4">
+        <v>6.5530730000000004</v>
+      </c>
+      <c r="R4">
+        <v>6.6166499999999999</v>
+      </c>
+      <c r="S4">
+        <v>6.542027</v>
+      </c>
+      <c r="T4" s="2">
+        <v>19.645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.5005869999999994</v>
+      </c>
+      <c r="C5">
+        <v>49.489800000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.5637740000000004</v>
+      </c>
+      <c r="E5">
+        <v>14.10708</v>
+      </c>
+      <c r="F5">
+        <v>3.9691869999999998</v>
+      </c>
+      <c r="G5">
+        <v>6.5899190000000001</v>
+      </c>
+      <c r="H5">
+        <v>33.658569999999997</v>
+      </c>
+      <c r="I5">
+        <v>1.375329</v>
+      </c>
+      <c r="J5">
+        <v>13.58886</v>
+      </c>
+      <c r="K5">
+        <v>8.6709239999999994</v>
+      </c>
+      <c r="L5">
+        <v>98.593900000000005</v>
+      </c>
+      <c r="M5">
+        <v>91.132949999999994</v>
+      </c>
+      <c r="N5">
+        <v>6.2468149999999998</v>
+      </c>
+      <c r="O5">
+        <v>19.368600000000001</v>
+      </c>
+      <c r="P5">
+        <v>15.882009999999999</v>
+      </c>
+      <c r="Q5">
+        <v>6.5530220000000003</v>
+      </c>
+      <c r="R5">
+        <v>6.6165909999999997</v>
+      </c>
+      <c r="S5">
+        <v>6.5419739999999997</v>
+      </c>
+      <c r="T5">
+        <v>19.645849999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <f>MAX(B2:B5)</f>
+        <v>9.5006599999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:S6" si="0">MAX(C2:C5)</f>
+        <v>49.5075</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4.5637740000000004</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>14.874000000000001</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.9692099999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>6.5905500000000004</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>33.658799999999999</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.5265420000000001</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>13.589309999999999</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>8.6711840000000002</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>98.593909999999994</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>91.775300000000001</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>12.274160999999999</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>19.370049999999999</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>30.95553</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>6.9102829999999997</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>6.7042869999999999</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>6.9591050000000001</v>
+      </c>
+      <c r="T6">
+        <f>MIN(T2:T5)</f>
+        <v>19.645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Centroid.xlsx
+++ b/Centroid.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\deden-RMarkdown &amp; Github\PDP-SoVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3EA760-2FBC-480A-BB4B-F0448C998F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC13B2D-2947-4872-9E1E-30D640F57747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5BEB3FE4-252B-420A-8209-382D475AF142}"/>
+    <workbookView xWindow="29520" yWindow="375" windowWidth="27795" windowHeight="13620" activeTab="2" xr2:uid="{5BEB3FE4-252B-420A-8209-382D475AF142}"/>
   </bookViews>
   <sheets>
     <sheet name="CVI" sheetId="6" r:id="rId1"/>
     <sheet name="m=1.5" sheetId="1" r:id="rId2"/>
-    <sheet name="m1.5a0.8" sheetId="9" r:id="rId3"/>
-    <sheet name="m1.6" sheetId="3" r:id="rId4"/>
-    <sheet name="m1.5" sheetId="4" r:id="rId5"/>
-    <sheet name="3m1.5" sheetId="8" r:id="rId6"/>
-    <sheet name="m1.1" sheetId="5" r:id="rId7"/>
-    <sheet name="m1.7" sheetId="7" r:id="rId8"/>
+    <sheet name="c4m1.5_514" sheetId="10" r:id="rId3"/>
+    <sheet name="m1.5a0.8" sheetId="9" r:id="rId4"/>
+    <sheet name="m1.6" sheetId="3" r:id="rId5"/>
+    <sheet name="m1.5" sheetId="4" r:id="rId6"/>
+    <sheet name="3m1.5" sheetId="8" r:id="rId7"/>
+    <sheet name="m1.1" sheetId="5" r:id="rId8"/>
+    <sheet name="m1.7" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="48">
   <si>
     <t>CHILDREN</t>
   </si>
@@ -180,6 +181,15 @@
   <si>
     <t>Sum of CE</t>
   </si>
+  <si>
+    <t>FHEAD FA</t>
+  </si>
+  <si>
+    <t>MILYSIZE N</t>
+  </si>
+  <si>
+    <t>OELECTRIC</t>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +210,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +229,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -232,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -251,6 +267,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5143,7 +5162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169B922D-2506-464B-BE8F-84F0A7E6F139}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -5938,6 +5957,421 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A783539-F999-47B7-8E88-6E5E07616738}">
+  <dimension ref="A1:AG6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9.3642079999999996</v>
+      </c>
+      <c r="C2">
+        <v>49.530999999999999</v>
+      </c>
+      <c r="D2">
+        <v>4.8759209999999999</v>
+      </c>
+      <c r="E2">
+        <v>14.2011</v>
+      </c>
+      <c r="F2">
+        <v>3.919654</v>
+      </c>
+      <c r="G2">
+        <v>4.6526310000000004</v>
+      </c>
+      <c r="H2">
+        <v>33.853850000000001</v>
+      </c>
+      <c r="I2">
+        <v>1.319709</v>
+      </c>
+      <c r="J2">
+        <v>12.593863000000001</v>
+      </c>
+      <c r="K2">
+        <v>8.0444790000000008</v>
+      </c>
+      <c r="L2">
+        <v>98.681229999999999</v>
+      </c>
+      <c r="M2">
+        <v>91.914379999999994</v>
+      </c>
+      <c r="N2">
+        <v>6.0476380000000001</v>
+      </c>
+      <c r="O2">
+        <v>16.200669999999999</v>
+      </c>
+      <c r="P2">
+        <v>15.0381</v>
+      </c>
+      <c r="Q2">
+        <v>6.4218929999999999</v>
+      </c>
+      <c r="R2">
+        <v>6.5351239999999997</v>
+      </c>
+      <c r="S2">
+        <v>6.4073339999999996</v>
+      </c>
+      <c r="T2">
+        <v>20.72325</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>9.1221139999999998</v>
+      </c>
+      <c r="C3" s="2">
+        <v>49.566209999999998</v>
+      </c>
+      <c r="D3">
+        <v>4.1985599999999996</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15.360379999999999</v>
+      </c>
+      <c r="F3">
+        <v>3.905986</v>
+      </c>
+      <c r="G3">
+        <v>2.7127539999999999</v>
+      </c>
+      <c r="H3">
+        <v>25.423580000000001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.579396</v>
+      </c>
+      <c r="J3">
+        <v>8.9939730000000004</v>
+      </c>
+      <c r="K3">
+        <v>5.9277819999999997</v>
+      </c>
+      <c r="L3">
+        <v>97.597149999999999</v>
+      </c>
+      <c r="M3">
+        <v>91.872380000000007</v>
+      </c>
+      <c r="N3" s="2">
+        <v>15.070425</v>
+      </c>
+      <c r="O3">
+        <v>9.1935599999999997</v>
+      </c>
+      <c r="P3" s="2">
+        <v>40.160550000000001</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>7.3018130000000001</v>
+      </c>
+      <c r="R3" s="2">
+        <v>6.9040699999999999</v>
+      </c>
+      <c r="S3" s="2">
+        <v>7.326657</v>
+      </c>
+      <c r="T3">
+        <v>32.285800000000002</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10.051978</v>
+      </c>
+      <c r="C4">
+        <v>49.366729999999997</v>
+      </c>
+      <c r="D4">
+        <v>3.8347609999999999</v>
+      </c>
+      <c r="E4">
+        <v>13.3871</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4.1538180000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>13.492509</v>
+      </c>
+      <c r="H4" s="2">
+        <v>34.411659999999998</v>
+      </c>
+      <c r="I4">
+        <v>1.4856860000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>17.598019000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>11.170583000000001</v>
+      </c>
+      <c r="L4">
+        <v>98.669979999999995</v>
+      </c>
+      <c r="M4">
+        <v>89.265079999999998</v>
+      </c>
+      <c r="N4">
+        <v>4.50298</v>
+      </c>
+      <c r="O4" s="2">
+        <v>31.368919999999999</v>
+      </c>
+      <c r="P4">
+        <v>11.81761</v>
+      </c>
+      <c r="Q4">
+        <v>6.3709069999999999</v>
+      </c>
+      <c r="R4">
+        <v>6.4945279999999999</v>
+      </c>
+      <c r="S4">
+        <v>6.4011449999999996</v>
+      </c>
+      <c r="T4" s="2">
+        <v>14.114409999999999</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>9.3641900000000007</v>
+      </c>
+      <c r="C5">
+        <v>49.530970000000003</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.8759269999999999</v>
+      </c>
+      <c r="E5">
+        <v>14.20111</v>
+      </c>
+      <c r="F5">
+        <v>3.9196420000000001</v>
+      </c>
+      <c r="G5">
+        <v>4.6522810000000003</v>
+      </c>
+      <c r="H5">
+        <v>33.853200000000001</v>
+      </c>
+      <c r="I5">
+        <v>1.319725</v>
+      </c>
+      <c r="J5">
+        <v>12.593398000000001</v>
+      </c>
+      <c r="K5">
+        <v>8.0442</v>
+      </c>
+      <c r="L5" s="2">
+        <v>98.681209999999993</v>
+      </c>
+      <c r="M5" s="2">
+        <v>91.914699999999996</v>
+      </c>
+      <c r="N5">
+        <v>6.0480549999999997</v>
+      </c>
+      <c r="O5">
+        <v>16.199470000000002</v>
+      </c>
+      <c r="P5">
+        <v>15.03825</v>
+      </c>
+      <c r="Q5">
+        <v>6.4217919999999999</v>
+      </c>
+      <c r="R5">
+        <v>6.5350169999999999</v>
+      </c>
+      <c r="S5">
+        <v>6.4072329999999997</v>
+      </c>
+      <c r="T5">
+        <v>20.724509999999999</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <f>MAX(B2:B5)</f>
+        <v>10.051978</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:T6" si="0">MAX(C2:C5)</f>
+        <v>49.566209999999998</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4.8759269999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>15.360379999999999</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4.1538180000000002</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>13.492509</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>34.411659999999998</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.579396</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>17.598019000000001</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>11.170583000000001</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>98.681229999999999</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>91.914699999999996</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>15.070425</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>31.368919999999999</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>40.160550000000001</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>7.3018130000000001</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>6.9040699999999999</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>7.326657</v>
+      </c>
+      <c r="T6">
+        <f>MIN(T2:T5)</f>
+        <v>14.114409999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71389ED7-4D80-4584-AE90-4C3666334B72}">
   <dimension ref="A1:T6"/>
   <sheetViews>
@@ -6352,7 +6786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEF7DFA-3794-4405-B8E6-531B11B50248}">
   <dimension ref="A1:T6"/>
   <sheetViews>
@@ -6772,7 +7206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CCB439-3541-4FFF-9EA4-0489DD5B1F94}">
   <dimension ref="A1:T12"/>
   <sheetViews>
@@ -7432,7 +7866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1365C4-DD2E-4D22-827E-5451F1569BBB}">
   <dimension ref="A1:T5"/>
   <sheetViews>
@@ -7767,7 +8201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232B1AEB-CFC4-43CB-9C6E-F3FFF0282706}">
   <dimension ref="A1:T6"/>
   <sheetViews>
@@ -8185,7 +8619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676C5D66-4829-4EC2-B1CD-87E2FAD89D70}">
   <dimension ref="A1:T6"/>
   <sheetViews>

--- a/Centroid.xlsx
+++ b/Centroid.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\deden-RMarkdown &amp; Github\PDP-SoVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC13B2D-2947-4872-9E1E-30D640F57747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B53723-84A5-4E65-B4E5-31A23D261D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29520" yWindow="375" windowWidth="27795" windowHeight="13620" activeTab="2" xr2:uid="{5BEB3FE4-252B-420A-8209-382D475AF142}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{5BEB3FE4-252B-420A-8209-382D475AF142}"/>
   </bookViews>
   <sheets>
     <sheet name="CVI" sheetId="6" r:id="rId1"/>
     <sheet name="m=1.5" sheetId="1" r:id="rId2"/>
     <sheet name="c4m1.5_514" sheetId="10" r:id="rId3"/>
-    <sheet name="m1.5a0.8" sheetId="9" r:id="rId4"/>
-    <sheet name="m1.6" sheetId="3" r:id="rId5"/>
-    <sheet name="m1.5" sheetId="4" r:id="rId6"/>
-    <sheet name="3m1.5" sheetId="8" r:id="rId7"/>
-    <sheet name="m1.1" sheetId="5" r:id="rId8"/>
-    <sheet name="m1.7" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
+    <sheet name="m1.5a0.8" sheetId="9" r:id="rId5"/>
+    <sheet name="m1.6" sheetId="3" r:id="rId6"/>
+    <sheet name="m1.5" sheetId="4" r:id="rId7"/>
+    <sheet name="3m1.5" sheetId="8" r:id="rId8"/>
+    <sheet name="m1.1" sheetId="5" r:id="rId9"/>
+    <sheet name="m1.7" sheetId="7" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="71">
   <si>
     <t>CHILDREN</t>
   </si>
@@ -190,12 +191,483 @@
   <si>
     <t>OELECTRIC</t>
   </si>
+  <si>
+    <t>DEFECTIVE</t>
+  </si>
+  <si>
+    <t>CHRONIC DISEASE</t>
+  </si>
+  <si>
+    <t>HEALTH INSURANCE</t>
+  </si>
+  <si>
+    <t>Variabel</t>
+  </si>
+  <si>
+    <r>
+      <t>Persentase penduduk umur 5 tahun ke bawah (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase Penduduk yang tidak bekerja (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase penduduk yang mempunyai jaminan sosial kesehatan (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase penduduk miskin (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase penduduk umur 65 tahun ke atas (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rata-rata jumlah anggota keluarga (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase rumah tangga dengan kepala rumah tangga perempuan (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase populasi wanita (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase pertumbuhan penduduk (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase rumah tangga yang tidak menggunakan listrik (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase rumah tangga yang tidak memiliki sistem drainase (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase rumah tangga yang menggunakan air pipa (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase rumah tangga yang tinggal di daerah rawan bencana (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase rumah tangga yang menyewa rumah (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase penduduk dengan pendidikan rendah (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase penduduk yang tidak bisa membaca dan menulis (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase rumah tangga yang tidak mendapatkan pelatihan kebencanaan (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase individu cacat (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Persentase individu yang memiliki penyakit kronis (X</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +680,26 @@
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -236,7 +728,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -244,11 +736,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -271,6 +915,55 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4862,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67150078-2FFE-410A-89C2-146B6A125134}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5155,6 +5848,411 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676C5D66-4829-4EC2-B1CD-87E2FAD89D70}">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="20" width="8.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9.2206449999999993</v>
+      </c>
+      <c r="C2" s="2">
+        <v>49.5075</v>
+      </c>
+      <c r="D2">
+        <v>4.2772779999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14.874000000000001</v>
+      </c>
+      <c r="F2">
+        <v>3.9111820000000002</v>
+      </c>
+      <c r="G2">
+        <v>3.995368</v>
+      </c>
+      <c r="H2">
+        <v>27.796669999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.5265420000000001</v>
+      </c>
+      <c r="J2">
+        <v>10.227410000000001</v>
+      </c>
+      <c r="K2">
+        <v>6.7308519999999996</v>
+      </c>
+      <c r="L2">
+        <v>97.977369999999993</v>
+      </c>
+      <c r="M2" s="2">
+        <v>91.775300000000001</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12.274160999999999</v>
+      </c>
+      <c r="O2">
+        <v>11.73887</v>
+      </c>
+      <c r="P2" s="2">
+        <v>30.95553</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>6.9102829999999997</v>
+      </c>
+      <c r="R2" s="2">
+        <v>6.7042869999999999</v>
+      </c>
+      <c r="S2" s="2">
+        <v>6.9591050000000001</v>
+      </c>
+      <c r="T2">
+        <v>29.02413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>9.5006540000000008</v>
+      </c>
+      <c r="C3">
+        <v>49.489789999999999</v>
+      </c>
+      <c r="D3">
+        <v>4.5636910000000004</v>
+      </c>
+      <c r="E3">
+        <v>14.10699</v>
+      </c>
+      <c r="F3">
+        <v>3.9692080000000001</v>
+      </c>
+      <c r="G3">
+        <v>6.5904930000000004</v>
+      </c>
+      <c r="H3">
+        <v>33.65878</v>
+      </c>
+      <c r="I3">
+        <v>1.375343</v>
+      </c>
+      <c r="J3">
+        <v>13.589270000000001</v>
+      </c>
+      <c r="K3">
+        <v>8.6711600000000004</v>
+      </c>
+      <c r="L3">
+        <v>98.593909999999994</v>
+      </c>
+      <c r="M3">
+        <v>91.132679999999993</v>
+      </c>
+      <c r="N3">
+        <v>6.2465809999999999</v>
+      </c>
+      <c r="O3">
+        <v>19.36992</v>
+      </c>
+      <c r="P3">
+        <v>15.881539999999999</v>
+      </c>
+      <c r="Q3">
+        <v>6.5530679999999997</v>
+      </c>
+      <c r="R3">
+        <v>6.6166450000000001</v>
+      </c>
+      <c r="S3">
+        <v>6.5420220000000002</v>
+      </c>
+      <c r="T3">
+        <v>19.64508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>9.5006599999999999</v>
+      </c>
+      <c r="C4">
+        <v>49.489789999999999</v>
+      </c>
+      <c r="D4">
+        <v>4.5636830000000002</v>
+      </c>
+      <c r="E4">
+        <v>14.10698</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3.9692099999999999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>6.5905500000000004</v>
+      </c>
+      <c r="H4" s="2">
+        <v>33.658799999999999</v>
+      </c>
+      <c r="I4">
+        <v>1.375345</v>
+      </c>
+      <c r="J4" s="2">
+        <v>13.589309999999999</v>
+      </c>
+      <c r="K4" s="2">
+        <v>8.6711840000000002</v>
+      </c>
+      <c r="L4" s="2">
+        <v>98.593909999999994</v>
+      </c>
+      <c r="M4">
+        <v>91.132649999999998</v>
+      </c>
+      <c r="N4">
+        <v>6.2465580000000003</v>
+      </c>
+      <c r="O4" s="2">
+        <v>19.370049999999999</v>
+      </c>
+      <c r="P4">
+        <v>15.881489999999999</v>
+      </c>
+      <c r="Q4">
+        <v>6.5530730000000004</v>
+      </c>
+      <c r="R4">
+        <v>6.6166499999999999</v>
+      </c>
+      <c r="S4">
+        <v>6.542027</v>
+      </c>
+      <c r="T4" s="2">
+        <v>19.645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.5005869999999994</v>
+      </c>
+      <c r="C5">
+        <v>49.489800000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4.5637740000000004</v>
+      </c>
+      <c r="E5">
+        <v>14.10708</v>
+      </c>
+      <c r="F5">
+        <v>3.9691869999999998</v>
+      </c>
+      <c r="G5">
+        <v>6.5899190000000001</v>
+      </c>
+      <c r="H5">
+        <v>33.658569999999997</v>
+      </c>
+      <c r="I5">
+        <v>1.375329</v>
+      </c>
+      <c r="J5">
+        <v>13.58886</v>
+      </c>
+      <c r="K5">
+        <v>8.6709239999999994</v>
+      </c>
+      <c r="L5">
+        <v>98.593900000000005</v>
+      </c>
+      <c r="M5">
+        <v>91.132949999999994</v>
+      </c>
+      <c r="N5">
+        <v>6.2468149999999998</v>
+      </c>
+      <c r="O5">
+        <v>19.368600000000001</v>
+      </c>
+      <c r="P5">
+        <v>15.882009999999999</v>
+      </c>
+      <c r="Q5">
+        <v>6.5530220000000003</v>
+      </c>
+      <c r="R5">
+        <v>6.6165909999999997</v>
+      </c>
+      <c r="S5">
+        <v>6.5419739999999997</v>
+      </c>
+      <c r="T5">
+        <v>19.645849999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <f>MAX(B2:B5)</f>
+        <v>9.5006599999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:S6" si="0">MAX(C2:C5)</f>
+        <v>49.5075</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4.5637740000000004</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>14.874000000000001</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>3.9692099999999999</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>6.5905500000000004</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>33.658799999999999</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.5265420000000001</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>13.589309999999999</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>8.6711840000000002</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>98.593909999999994</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>91.775300000000001</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>12.274160999999999</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>19.370049999999999</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>30.95553</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>6.9102829999999997</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="0"/>
+        <v>6.7042869999999999</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>6.9591050000000001</v>
+      </c>
+      <c r="T6">
+        <f>MIN(T2:T5)</f>
+        <v>19.645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5958,13 +7056,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A783539-F999-47B7-8E88-6E5E07616738}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
@@ -6293,7 +7394,7 @@
         <v>10.051978</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:T6" si="0">MAX(C2:C5)</f>
+        <f t="shared" ref="C6:S6" si="0">MAX(C2:C5)</f>
         <v>49.566209999999998</v>
       </c>
       <c r="D6">
@@ -6365,13 +7466,1198 @@
         <v>14.114409999999999</v>
       </c>
     </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11">
+        <v>9.3642079999999996</v>
+      </c>
+      <c r="C10" s="12">
+        <v>49.530999999999999</v>
+      </c>
+      <c r="D10" s="12">
+        <v>4.8759209999999999</v>
+      </c>
+      <c r="E10" s="12">
+        <v>14.2011</v>
+      </c>
+      <c r="F10" s="11">
+        <v>3.919654</v>
+      </c>
+      <c r="G10" s="11">
+        <v>4.6526310000000004</v>
+      </c>
+      <c r="H10" s="11">
+        <v>33.853850000000001</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1.319709</v>
+      </c>
+      <c r="J10" s="11">
+        <v>12.593863000000001</v>
+      </c>
+      <c r="K10" s="11">
+        <v>8.0444790000000008</v>
+      </c>
+      <c r="L10" s="11">
+        <v>98.681229999999999</v>
+      </c>
+      <c r="M10" s="11">
+        <v>91.914379999999994</v>
+      </c>
+      <c r="N10" s="11">
+        <v>6.0476380000000001</v>
+      </c>
+      <c r="O10" s="11">
+        <v>16.200669999999999</v>
+      </c>
+      <c r="P10" s="11">
+        <v>15.0381</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>6.4218929999999999</v>
+      </c>
+      <c r="R10" s="11">
+        <v>6.5351239999999997</v>
+      </c>
+      <c r="S10" s="11">
+        <v>6.4073339999999996</v>
+      </c>
+      <c r="T10" s="11">
+        <v>20.72325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11">
+        <v>9.1221139999999998</v>
+      </c>
+      <c r="C11" s="13">
+        <v>49.566209999999998</v>
+      </c>
+      <c r="D11" s="11">
+        <v>4.1985599999999996</v>
+      </c>
+      <c r="E11" s="13">
+        <v>15.360379999999999</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3.905986</v>
+      </c>
+      <c r="G11" s="11">
+        <v>2.7127539999999999</v>
+      </c>
+      <c r="H11" s="11">
+        <v>25.423580000000001</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1.579396</v>
+      </c>
+      <c r="J11" s="11">
+        <v>8.9939730000000004</v>
+      </c>
+      <c r="K11" s="11">
+        <v>5.9277819999999997</v>
+      </c>
+      <c r="L11" s="11">
+        <v>97.597149999999999</v>
+      </c>
+      <c r="M11" s="11">
+        <v>91.872380000000007</v>
+      </c>
+      <c r="N11" s="13">
+        <v>15.070425</v>
+      </c>
+      <c r="O11" s="11">
+        <v>9.1935599999999997</v>
+      </c>
+      <c r="P11" s="13">
+        <v>40.160550000000001</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>7.3018130000000001</v>
+      </c>
+      <c r="R11" s="13">
+        <v>6.9040699999999999</v>
+      </c>
+      <c r="S11" s="13">
+        <v>7.326657</v>
+      </c>
+      <c r="T11" s="11">
+        <v>32.285800000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="13">
+        <v>10.051978</v>
+      </c>
+      <c r="C12" s="11">
+        <v>49.366729999999997</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3.8347609999999999</v>
+      </c>
+      <c r="E12" s="11">
+        <v>13.3871</v>
+      </c>
+      <c r="F12" s="13">
+        <v>4.1538180000000002</v>
+      </c>
+      <c r="G12" s="13">
+        <v>13.492509</v>
+      </c>
+      <c r="H12" s="13">
+        <v>34.411659999999998</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1.4856860000000001</v>
+      </c>
+      <c r="J12" s="13">
+        <v>17.598019000000001</v>
+      </c>
+      <c r="K12" s="13">
+        <v>11.170583000000001</v>
+      </c>
+      <c r="L12" s="11">
+        <v>98.669979999999995</v>
+      </c>
+      <c r="M12" s="11">
+        <v>89.265079999999998</v>
+      </c>
+      <c r="N12" s="11">
+        <v>4.50298</v>
+      </c>
+      <c r="O12" s="13">
+        <v>31.368919999999999</v>
+      </c>
+      <c r="P12" s="11">
+        <v>11.81761</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>6.3709069999999999</v>
+      </c>
+      <c r="R12" s="11">
+        <v>6.4945279999999999</v>
+      </c>
+      <c r="S12" s="11">
+        <v>6.4011449999999996</v>
+      </c>
+      <c r="T12" s="13">
+        <v>14.114409999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="11">
+        <v>9.3641900000000007</v>
+      </c>
+      <c r="C13" s="11">
+        <v>49.530970000000003</v>
+      </c>
+      <c r="D13" s="13">
+        <v>4.8759269999999999</v>
+      </c>
+      <c r="E13" s="11">
+        <v>14.20111</v>
+      </c>
+      <c r="F13" s="11">
+        <v>3.9196420000000001</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4.6522810000000003</v>
+      </c>
+      <c r="H13" s="11">
+        <v>33.853200000000001</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1.319725</v>
+      </c>
+      <c r="J13" s="11">
+        <v>12.593398000000001</v>
+      </c>
+      <c r="K13" s="11">
+        <v>8.0442</v>
+      </c>
+      <c r="L13" s="13">
+        <v>98.681209999999993</v>
+      </c>
+      <c r="M13" s="13">
+        <v>91.914699999999996</v>
+      </c>
+      <c r="N13" s="11">
+        <v>6.0480549999999997</v>
+      </c>
+      <c r="O13" s="11">
+        <v>16.199470000000002</v>
+      </c>
+      <c r="P13" s="11">
+        <v>15.03825</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>6.4217919999999999</v>
+      </c>
+      <c r="R13" s="11">
+        <v>6.5350169999999999</v>
+      </c>
+      <c r="S13" s="11">
+        <v>6.4072329999999997</v>
+      </c>
+      <c r="T13" s="11">
+        <v>20.724509999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B14" s="11">
+        <f>MAX(B10:B13)</f>
+        <v>10.051978</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" ref="C14:S14" si="1">MAX(C10:C13)</f>
+        <v>49.566209999999998</v>
+      </c>
+      <c r="D14" s="11">
+        <f t="shared" si="1"/>
+        <v>4.8759269999999999</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="1"/>
+        <v>15.360379999999999</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="1"/>
+        <v>4.1538180000000002</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="1"/>
+        <v>13.492509</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="1"/>
+        <v>34.411659999999998</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="1"/>
+        <v>1.579396</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="1"/>
+        <v>17.598019000000001</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="1"/>
+        <v>11.170583000000001</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="1"/>
+        <v>98.681229999999999</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="1"/>
+        <v>91.914699999999996</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="1"/>
+        <v>15.070425</v>
+      </c>
+      <c r="O14" s="11">
+        <f t="shared" si="1"/>
+        <v>31.368919999999999</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" si="1"/>
+        <v>40.160550000000001</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" si="1"/>
+        <v>7.3018130000000001</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" si="1"/>
+        <v>6.9040699999999999</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" si="1"/>
+        <v>7.326657</v>
+      </c>
+      <c r="T14" s="11">
+        <f>MIN(T10:T13)</f>
+        <v>14.114409999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D18" s="19"/>
+      <c r="E18" s="14">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>2</v>
+      </c>
+      <c r="G18" s="20">
+        <v>3</v>
+      </c>
+      <c r="H18" s="14">
+        <v>4</v>
+      </c>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <v>9.3642079999999996</v>
+      </c>
+      <c r="F19" s="11">
+        <v>9.1221139999999998</v>
+      </c>
+      <c r="G19" s="13">
+        <v>10.051978</v>
+      </c>
+      <c r="H19" s="11">
+        <v>9.3641900000000007</v>
+      </c>
+      <c r="I19" s="11">
+        <f>MAX(E19:H19)</f>
+        <v>10.051978</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12">
+        <v>49.530999999999999</v>
+      </c>
+      <c r="F20" s="13">
+        <v>49.566209999999998</v>
+      </c>
+      <c r="G20" s="11">
+        <v>49.366729999999997</v>
+      </c>
+      <c r="H20" s="11">
+        <v>49.530970000000003</v>
+      </c>
+      <c r="I20" s="11">
+        <f>MAX(E20:H20)</f>
+        <v>49.566209999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>4.8759209999999999</v>
+      </c>
+      <c r="F21" s="11">
+        <v>4.1985599999999996</v>
+      </c>
+      <c r="G21" s="11">
+        <v>3.8347609999999999</v>
+      </c>
+      <c r="H21" s="13">
+        <v>4.8759269999999999</v>
+      </c>
+      <c r="I21" s="11">
+        <f>MAX(E21:H21)</f>
+        <v>4.8759269999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="12">
+        <v>14.2011</v>
+      </c>
+      <c r="F22" s="13">
+        <v>15.360379999999999</v>
+      </c>
+      <c r="G22" s="11">
+        <v>13.3871</v>
+      </c>
+      <c r="H22" s="11">
+        <v>14.20111</v>
+      </c>
+      <c r="I22" s="11">
+        <f>MAX(E22:H22)</f>
+        <v>15.360379999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="11">
+        <v>3.919654</v>
+      </c>
+      <c r="F23" s="11">
+        <v>3.905986</v>
+      </c>
+      <c r="G23" s="13">
+        <v>4.1538180000000002</v>
+      </c>
+      <c r="H23" s="11">
+        <v>3.9196420000000001</v>
+      </c>
+      <c r="I23" s="11">
+        <f>MAX(E23:H23)</f>
+        <v>4.1538180000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="11">
+        <v>4.6526310000000004</v>
+      </c>
+      <c r="F24" s="11">
+        <v>2.7127539999999999</v>
+      </c>
+      <c r="G24" s="13">
+        <v>13.492509</v>
+      </c>
+      <c r="H24" s="11">
+        <v>4.6522810000000003</v>
+      </c>
+      <c r="I24" s="11">
+        <f>MAX(E24:H24)</f>
+        <v>13.492509</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="11">
+        <v>33.853850000000001</v>
+      </c>
+      <c r="F25" s="11">
+        <v>25.423580000000001</v>
+      </c>
+      <c r="G25" s="13">
+        <v>34.411659999999998</v>
+      </c>
+      <c r="H25" s="11">
+        <v>33.853200000000001</v>
+      </c>
+      <c r="I25" s="11">
+        <f>MAX(E25:H25)</f>
+        <v>34.411659999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1.319709</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1.579396</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1.4856860000000001</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1.319725</v>
+      </c>
+      <c r="I26" s="11">
+        <f>MAX(E26:H26)</f>
+        <v>1.579396</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="11">
+        <v>12.593863000000001</v>
+      </c>
+      <c r="F27" s="11">
+        <v>8.9939730000000004</v>
+      </c>
+      <c r="G27" s="13">
+        <v>17.598019000000001</v>
+      </c>
+      <c r="H27" s="11">
+        <v>12.593398000000001</v>
+      </c>
+      <c r="I27" s="11">
+        <f>MAX(E27:H27)</f>
+        <v>17.598019000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="11">
+        <v>8.0444790000000008</v>
+      </c>
+      <c r="F28" s="11">
+        <v>5.9277819999999997</v>
+      </c>
+      <c r="G28" s="13">
+        <v>11.170583000000001</v>
+      </c>
+      <c r="H28" s="11">
+        <v>8.0442</v>
+      </c>
+      <c r="I28" s="11">
+        <f>MAX(E28:H28)</f>
+        <v>11.170583000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="11">
+        <v>98.681229999999999</v>
+      </c>
+      <c r="F29" s="11">
+        <v>97.597149999999999</v>
+      </c>
+      <c r="G29" s="11">
+        <v>98.669979999999995</v>
+      </c>
+      <c r="H29" s="13">
+        <v>98.681209999999993</v>
+      </c>
+      <c r="I29" s="11">
+        <f>MAX(E29:H29)</f>
+        <v>98.681229999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="11">
+        <v>91.914379999999994</v>
+      </c>
+      <c r="F30" s="11">
+        <v>91.872380000000007</v>
+      </c>
+      <c r="G30" s="11">
+        <v>89.265079999999998</v>
+      </c>
+      <c r="H30" s="13">
+        <v>91.914699999999996</v>
+      </c>
+      <c r="I30" s="11">
+        <f>MAX(E30:H30)</f>
+        <v>91.914699999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="11">
+        <v>6.0476380000000001</v>
+      </c>
+      <c r="F31" s="13">
+        <v>15.070425</v>
+      </c>
+      <c r="G31" s="11">
+        <v>4.50298</v>
+      </c>
+      <c r="H31" s="11">
+        <v>6.0480549999999997</v>
+      </c>
+      <c r="I31" s="11">
+        <f>MAX(E31:H31)</f>
+        <v>15.070425</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="11">
+        <v>16.200669999999999</v>
+      </c>
+      <c r="F32" s="11">
+        <v>9.1935599999999997</v>
+      </c>
+      <c r="G32" s="13">
+        <v>31.368919999999999</v>
+      </c>
+      <c r="H32" s="11">
+        <v>16.199470000000002</v>
+      </c>
+      <c r="I32" s="11">
+        <f>MAX(E32:H32)</f>
+        <v>31.368919999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="11">
+        <v>15.0381</v>
+      </c>
+      <c r="F33" s="13">
+        <v>40.160550000000001</v>
+      </c>
+      <c r="G33" s="11">
+        <v>11.81761</v>
+      </c>
+      <c r="H33" s="11">
+        <v>15.03825</v>
+      </c>
+      <c r="I33" s="11">
+        <f>MAX(E33:H33)</f>
+        <v>40.160550000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="11">
+        <v>6.4218929999999999</v>
+      </c>
+      <c r="F34" s="13">
+        <v>7.3018130000000001</v>
+      </c>
+      <c r="G34" s="11">
+        <v>6.3709069999999999</v>
+      </c>
+      <c r="H34" s="11">
+        <v>6.4217919999999999</v>
+      </c>
+      <c r="I34" s="11">
+        <f>MAX(E34:H34)</f>
+        <v>7.3018130000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="11">
+        <v>6.5351239999999997</v>
+      </c>
+      <c r="F35" s="13">
+        <v>6.9040699999999999</v>
+      </c>
+      <c r="G35" s="11">
+        <v>6.4945279999999999</v>
+      </c>
+      <c r="H35" s="11">
+        <v>6.5350169999999999</v>
+      </c>
+      <c r="I35" s="11">
+        <f>MAX(E35:H35)</f>
+        <v>6.9040699999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="11">
+        <v>6.4073339999999996</v>
+      </c>
+      <c r="F36" s="13">
+        <v>7.326657</v>
+      </c>
+      <c r="G36" s="11">
+        <v>6.4011449999999996</v>
+      </c>
+      <c r="H36" s="11">
+        <v>6.4072329999999997</v>
+      </c>
+      <c r="I36" s="11">
+        <f>MAX(E36:H36)</f>
+        <v>7.326657</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="11">
+        <v>20.72325</v>
+      </c>
+      <c r="F37" s="11">
+        <v>32.285800000000002</v>
+      </c>
+      <c r="G37" s="13">
+        <v>14.114409999999999</v>
+      </c>
+      <c r="H37" s="11">
+        <v>20.724509999999999</v>
+      </c>
+      <c r="I37" s="11">
+        <f>MIN(E37:H37)</f>
+        <v>14.114409999999999</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:H17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8603B7A9-8EF1-4039-9910-1374B3D1981E}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="46.81640625" customWidth="1"/>
+    <col min="2" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="26"/>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23">
+        <v>2</v>
+      </c>
+      <c r="D2" s="23">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="30">
+        <v>6.4218900000000003</v>
+      </c>
+      <c r="C3" s="31">
+        <v>7.3018099999999997</v>
+      </c>
+      <c r="D3" s="30">
+        <v>6.3709100000000003</v>
+      </c>
+      <c r="E3" s="30">
+        <v>6.4217899999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="30">
+        <v>20.72325</v>
+      </c>
+      <c r="C4" s="30">
+        <v>32.285800000000002</v>
+      </c>
+      <c r="D4" s="31">
+        <v>14.114409999999999</v>
+      </c>
+      <c r="E4" s="30">
+        <v>20.724509999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="30">
+        <v>12.593859999999999</v>
+      </c>
+      <c r="C5" s="30">
+        <v>8.9939699999999991</v>
+      </c>
+      <c r="D5" s="31">
+        <v>17.598020000000002</v>
+      </c>
+      <c r="E5" s="30">
+        <v>12.593400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="30">
+        <v>9.3642099999999999</v>
+      </c>
+      <c r="C6" s="30">
+        <v>9.1221099999999993</v>
+      </c>
+      <c r="D6" s="31">
+        <v>10.05198</v>
+      </c>
+      <c r="E6" s="30">
+        <v>9.3641900000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="31">
+        <v>4.8759199999999998</v>
+      </c>
+      <c r="C7" s="30">
+        <v>4.1985599999999996</v>
+      </c>
+      <c r="D7" s="30">
+        <v>3.8347600000000002</v>
+      </c>
+      <c r="E7" s="30">
+        <v>4.8758900000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="30">
+        <v>3.9196499999999999</v>
+      </c>
+      <c r="C8" s="30">
+        <v>3.9059900000000001</v>
+      </c>
+      <c r="D8" s="31">
+        <v>4.1538199999999996</v>
+      </c>
+      <c r="E8" s="30">
+        <v>3.9196399999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="31">
+        <v>15.360379999999999</v>
+      </c>
+      <c r="C9" s="30">
+        <v>14.2011</v>
+      </c>
+      <c r="D9" s="30">
+        <v>13.3871</v>
+      </c>
+      <c r="E9" s="30">
+        <v>14.20111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="31">
+        <v>49.566209999999998</v>
+      </c>
+      <c r="C10" s="30">
+        <v>49.530999999999999</v>
+      </c>
+      <c r="D10" s="30">
+        <v>49.366729999999997</v>
+      </c>
+      <c r="E10" s="30">
+        <v>49.530970000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="30">
+        <v>1.3197099999999999</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1.5793999999999999</v>
+      </c>
+      <c r="D11" s="30">
+        <v>1.48569</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1.3197300000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="30">
+        <v>4.6526300000000003</v>
+      </c>
+      <c r="C12" s="30">
+        <v>2.7127500000000002</v>
+      </c>
+      <c r="D12" s="31">
+        <v>13.492509999999999</v>
+      </c>
+      <c r="E12" s="30">
+        <v>4.6522800000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="30">
+        <v>16.200669999999999</v>
+      </c>
+      <c r="C13" s="30">
+        <v>9.1935599999999997</v>
+      </c>
+      <c r="D13" s="31">
+        <v>31.368919999999999</v>
+      </c>
+      <c r="E13" s="30">
+        <v>16.199470000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="30">
+        <v>15.0381</v>
+      </c>
+      <c r="C14" s="31">
+        <v>40.160550000000001</v>
+      </c>
+      <c r="D14" s="30">
+        <v>11.81761</v>
+      </c>
+      <c r="E14" s="30">
+        <v>15.03825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="30">
+        <v>91.914379999999994</v>
+      </c>
+      <c r="C15" s="30">
+        <v>91.872380000000007</v>
+      </c>
+      <c r="D15" s="30">
+        <v>89.265079999999998</v>
+      </c>
+      <c r="E15" s="31">
+        <v>91.914699999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="30">
+        <v>6.0476400000000003</v>
+      </c>
+      <c r="C16" s="31">
+        <v>15.07043</v>
+      </c>
+      <c r="D16" s="30">
+        <v>4.50298</v>
+      </c>
+      <c r="E16" s="30">
+        <v>6.0480600000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="30">
+        <v>33.853850000000001</v>
+      </c>
+      <c r="C17" s="30">
+        <v>25.423580000000001</v>
+      </c>
+      <c r="D17" s="31">
+        <v>34.411659999999998</v>
+      </c>
+      <c r="E17" s="30">
+        <v>33.853200000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="30">
+        <v>8.0444800000000001</v>
+      </c>
+      <c r="C18" s="30">
+        <v>5.9277800000000003</v>
+      </c>
+      <c r="D18" s="31">
+        <v>11.170579999999999</v>
+      </c>
+      <c r="E18" s="30">
+        <v>8.0442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="30">
+        <v>98.681229999999999</v>
+      </c>
+      <c r="C19" s="30">
+        <v>97.597149999999999</v>
+      </c>
+      <c r="D19" s="30">
+        <v>98.669979999999995</v>
+      </c>
+      <c r="E19" s="31">
+        <v>98.681209999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="30">
+        <v>6.53512</v>
+      </c>
+      <c r="C20" s="31">
+        <v>6.9040699999999999</v>
+      </c>
+      <c r="D20" s="30">
+        <v>6.4945300000000001</v>
+      </c>
+      <c r="E20" s="30">
+        <v>6.5350200000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="30">
+        <v>6.40733</v>
+      </c>
+      <c r="C21" s="31">
+        <v>7.3266600000000004</v>
+      </c>
+      <c r="D21" s="30">
+        <v>6.4011500000000003</v>
+      </c>
+      <c r="E21" s="30">
+        <v>6.4072300000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71389ED7-4D80-4584-AE90-4C3666334B72}">
   <dimension ref="A1:T6"/>
   <sheetViews>
@@ -6786,7 +9072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEF7DFA-3794-4405-B8E6-531B11B50248}">
   <dimension ref="A1:T6"/>
   <sheetViews>
@@ -7206,7 +9492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CCB439-3541-4FFF-9EA4-0489DD5B1F94}">
   <dimension ref="A1:T12"/>
   <sheetViews>
@@ -7866,7 +10152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1365C4-DD2E-4D22-827E-5451F1569BBB}">
   <dimension ref="A1:T5"/>
   <sheetViews>
@@ -8201,7 +10487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232B1AEB-CFC4-43CB-9C6E-F3FFF0282706}">
   <dimension ref="A1:T6"/>
   <sheetViews>
@@ -8617,409 +10903,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676C5D66-4829-4EC2-B1CD-87E2FAD89D70}">
-  <dimension ref="A1:T6"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="20" width="8.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>9.2206449999999993</v>
-      </c>
-      <c r="C2" s="2">
-        <v>49.5075</v>
-      </c>
-      <c r="D2">
-        <v>4.2772779999999999</v>
-      </c>
-      <c r="E2" s="2">
-        <v>14.874000000000001</v>
-      </c>
-      <c r="F2">
-        <v>3.9111820000000002</v>
-      </c>
-      <c r="G2">
-        <v>3.995368</v>
-      </c>
-      <c r="H2">
-        <v>27.796669999999999</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1.5265420000000001</v>
-      </c>
-      <c r="J2">
-        <v>10.227410000000001</v>
-      </c>
-      <c r="K2">
-        <v>6.7308519999999996</v>
-      </c>
-      <c r="L2">
-        <v>97.977369999999993</v>
-      </c>
-      <c r="M2" s="2">
-        <v>91.775300000000001</v>
-      </c>
-      <c r="N2" s="2">
-        <v>12.274160999999999</v>
-      </c>
-      <c r="O2">
-        <v>11.73887</v>
-      </c>
-      <c r="P2" s="2">
-        <v>30.95553</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>6.9102829999999997</v>
-      </c>
-      <c r="R2" s="2">
-        <v>6.7042869999999999</v>
-      </c>
-      <c r="S2" s="2">
-        <v>6.9591050000000001</v>
-      </c>
-      <c r="T2">
-        <v>29.02413</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>9.5006540000000008</v>
-      </c>
-      <c r="C3">
-        <v>49.489789999999999</v>
-      </c>
-      <c r="D3">
-        <v>4.5636910000000004</v>
-      </c>
-      <c r="E3">
-        <v>14.10699</v>
-      </c>
-      <c r="F3">
-        <v>3.9692080000000001</v>
-      </c>
-      <c r="G3">
-        <v>6.5904930000000004</v>
-      </c>
-      <c r="H3">
-        <v>33.65878</v>
-      </c>
-      <c r="I3">
-        <v>1.375343</v>
-      </c>
-      <c r="J3">
-        <v>13.589270000000001</v>
-      </c>
-      <c r="K3">
-        <v>8.6711600000000004</v>
-      </c>
-      <c r="L3">
-        <v>98.593909999999994</v>
-      </c>
-      <c r="M3">
-        <v>91.132679999999993</v>
-      </c>
-      <c r="N3">
-        <v>6.2465809999999999</v>
-      </c>
-      <c r="O3">
-        <v>19.36992</v>
-      </c>
-      <c r="P3">
-        <v>15.881539999999999</v>
-      </c>
-      <c r="Q3">
-        <v>6.5530679999999997</v>
-      </c>
-      <c r="R3">
-        <v>6.6166450000000001</v>
-      </c>
-      <c r="S3">
-        <v>6.5420220000000002</v>
-      </c>
-      <c r="T3">
-        <v>19.64508</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>9.5006599999999999</v>
-      </c>
-      <c r="C4">
-        <v>49.489789999999999</v>
-      </c>
-      <c r="D4">
-        <v>4.5636830000000002</v>
-      </c>
-      <c r="E4">
-        <v>14.10698</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3.9692099999999999</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6.5905500000000004</v>
-      </c>
-      <c r="H4" s="2">
-        <v>33.658799999999999</v>
-      </c>
-      <c r="I4">
-        <v>1.375345</v>
-      </c>
-      <c r="J4" s="2">
-        <v>13.589309999999999</v>
-      </c>
-      <c r="K4" s="2">
-        <v>8.6711840000000002</v>
-      </c>
-      <c r="L4" s="2">
-        <v>98.593909999999994</v>
-      </c>
-      <c r="M4">
-        <v>91.132649999999998</v>
-      </c>
-      <c r="N4">
-        <v>6.2465580000000003</v>
-      </c>
-      <c r="O4" s="2">
-        <v>19.370049999999999</v>
-      </c>
-      <c r="P4">
-        <v>15.881489999999999</v>
-      </c>
-      <c r="Q4">
-        <v>6.5530730000000004</v>
-      </c>
-      <c r="R4">
-        <v>6.6166499999999999</v>
-      </c>
-      <c r="S4">
-        <v>6.542027</v>
-      </c>
-      <c r="T4" s="2">
-        <v>19.645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2">
-        <v>9.5005869999999994</v>
-      </c>
-      <c r="C5">
-        <v>49.489800000000002</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4.5637740000000004</v>
-      </c>
-      <c r="E5">
-        <v>14.10708</v>
-      </c>
-      <c r="F5">
-        <v>3.9691869999999998</v>
-      </c>
-      <c r="G5">
-        <v>6.5899190000000001</v>
-      </c>
-      <c r="H5">
-        <v>33.658569999999997</v>
-      </c>
-      <c r="I5">
-        <v>1.375329</v>
-      </c>
-      <c r="J5">
-        <v>13.58886</v>
-      </c>
-      <c r="K5">
-        <v>8.6709239999999994</v>
-      </c>
-      <c r="L5">
-        <v>98.593900000000005</v>
-      </c>
-      <c r="M5">
-        <v>91.132949999999994</v>
-      </c>
-      <c r="N5">
-        <v>6.2468149999999998</v>
-      </c>
-      <c r="O5">
-        <v>19.368600000000001</v>
-      </c>
-      <c r="P5">
-        <v>15.882009999999999</v>
-      </c>
-      <c r="Q5">
-        <v>6.5530220000000003</v>
-      </c>
-      <c r="R5">
-        <v>6.6165909999999997</v>
-      </c>
-      <c r="S5">
-        <v>6.5419739999999997</v>
-      </c>
-      <c r="T5">
-        <v>19.645849999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <f>MAX(B2:B5)</f>
-        <v>9.5006599999999999</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ref="C6:S6" si="0">MAX(C2:C5)</f>
-        <v>49.5075</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>4.5637740000000004</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>14.874000000000001</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>3.9692099999999999</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>6.5905500000000004</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>33.658799999999999</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1.5265420000000001</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>13.589309999999999</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>8.6711840000000002</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>98.593909999999994</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
-        <v>91.775300000000001</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>12.274160999999999</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
-        <v>19.370049999999999</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>30.95553</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>6.9102829999999997</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>6.7042869999999999</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>6.9591050000000001</v>
-      </c>
-      <c r="T6">
-        <f>MIN(T2:T5)</f>
-        <v>19.645</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
-</worksheet>
 </file>